--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -5181,7 +5181,9 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="38"/>
-      <c r="H72" s="40"/>
+      <c r="H72" s="40">
+        <v>5.0</v>
+      </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11" t="s">
         <v>66</v>
@@ -5242,7 +5244,7 @@
       </c>
       <c r="H74" s="64">
         <f>SUM(H15:H72)</f>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
